--- a/biology/Zoologie/Hemidactylus_inintellectus/Hemidactylus_inintellectus.xlsx
+++ b/biology/Zoologie/Hemidactylus_inintellectus/Hemidactylus_inintellectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus inintellectus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus inintellectus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus inintellectus mesure jusqu'à 60,5 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus inintellectus mesure jusqu'à 60,5 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, inintellectus, du latin in-, « sans », et intellectus, « faculté de comprendre », lui a été donné en référence au fait que cette espèce, observée et collectée par différents auteurs (dont l'équipe de Roberto Sindaco), a été confondue avec d'autres taxons ou a été soupçonnée d'être un nouveau taxon, mais est restée non décrite pendant environ dix ans[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, inintellectus, du latin in-, « sans », et intellectus, « faculté de comprendre », lui a été donné en référence au fait que cette espèce, observée et collectée par différents auteurs (dont l'équipe de Roberto Sindaco), a été confondue avec d'autres taxons ou a été soupçonnée d'être un nouveau taxon, mais est restée non décrite pendant environ dix ans.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Roberto Sindaco, Ugo Ziliani, Edoardo Razzetti, Caterina Carugati, Cristina Grieco, Fabio Pupin, Badr Awadh Al-Aseily, Francesca Pella et Mauro Fasola, « A misunderstood new gecko of the genus Hemidactylus from Socotra Island, Yemen (Reptilia: Squamata: Gekkonidae) », Acta Herpetologica, FUP (d) et Societas Herpetologica Italica (d), vol. 4, no 1,‎ 1er juillet 2009, p. 83-98 (ISSN 1827-9635 et 1827-9643, OCLC 804609627, DOI 10.13128/ACTA_HERPETOL-2957, lire en ligne)</t>
         </is>
